--- a/data/results/combined_5_144674ce47.xlsx
+++ b/data/results/combined_5_144674ce47.xlsx
@@ -4368,7 +4368,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4378,13 +4378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4442,10 +4436,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4785,7 +4779,7 @@
     <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -4913,7 +4907,7 @@
       </c>
       <c r="U2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -4978,7 +4972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -5041,7 +5035,7 @@
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -5104,7 +5098,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -5169,7 +5163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
@@ -5232,7 +5226,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -5295,7 +5289,7 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>103</v>
       </c>
@@ -5423,7 +5417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -5488,7 +5482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>122</v>
       </c>
@@ -5553,7 +5547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>131</v>
       </c>
@@ -5618,7 +5612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>140</v>
       </c>
@@ -5681,7 +5675,7 @@
       </c>
       <c r="U14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>148</v>
       </c>
@@ -5746,7 +5740,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
@@ -5809,7 +5803,7 @@
       </c>
       <c r="U16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>164</v>
       </c>
@@ -5874,7 +5868,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
@@ -5939,7 +5933,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>182</v>
       </c>
@@ -6004,7 +5998,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>190</v>
       </c>
@@ -6067,7 +6061,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>198</v>
       </c>
